--- a/trebakupit.xlsx
+++ b/trebakupit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stubask-my.sharepoint.com/personal/xtibensky_stuba_sk/Documents/Dokumenty/GitHub/Bakalarka/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{8209DC3D-5333-40D9-A989-62B4B1577F1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{56744783-1C00-42FC-BB28-499137FE48FA}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{8209DC3D-5333-40D9-A989-62B4B1577F1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{82AED37C-A905-4AA7-927A-DB819CF09825}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{961F46AA-65F5-44AC-886F-5AA359E73C9E}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -115,7 +114,7 @@
     <t>link</t>
   </si>
   <si>
-    <t xml:space="preserve">OUT OF STOCK </t>
+    <t>sklad UAMAI</t>
   </si>
 </sst>
 </file>
@@ -182,13 +181,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -506,7 +519,7 @@
   <dimension ref="A2:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,253 +532,388 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <f>PRODUCT(E5,A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <f>SUM(F5,-H5)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>2</v>
       </c>
-      <c r="H6">
-        <v>0</v>
+      <c r="F6" s="5">
+        <f t="shared" ref="F6:F22" si="0">PRODUCT(E6,A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" ref="I6:I22" si="1">SUM(F6,-H6)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="H9">
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5">
         <v>6</v>
       </c>
-      <c r="I9">
-        <v>0</v>
+      <c r="I9" s="5">
+        <f t="shared" si="1"/>
+        <v>-5</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>2</v>
       </c>
-      <c r="H10">
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5">
         <v>4</v>
       </c>
-      <c r="I10">
-        <v>0</v>
+      <c r="I10" s="5">
+        <f t="shared" si="1"/>
+        <v>-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="H13">
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5">
         <v>2</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="1"/>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H14">
+      <c r="I14" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
+      <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
+      <c r="D16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <v>3</v>
       </c>
-      <c r="H17">
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5">
         <v>10</v>
       </c>
+      <c r="I17" s="5">
+        <f t="shared" si="1"/>
+        <v>-7</v>
+      </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
+      <c r="D19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <v>2</v>
       </c>
-      <c r="H19">
-        <v>0</v>
+      <c r="F19" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="H20">
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5">
         <v>3</v>
       </c>
+      <c r="I20" s="5">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H21">
+      <c r="I21" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="H22">
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5">
         <v>5</v>
       </c>
-      <c r="I22">
-        <v>0</v>
+      <c r="I22" s="5">
+        <f t="shared" si="1"/>
+        <v>-4</v>
       </c>
     </row>
   </sheetData>
